--- a/case-study/sample_info.xlsx
+++ b/case-study/sample_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Thesis\DMRichR-workspace\D. pulex + CpG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB69874E-25CB-450B-81D4-079F47C99F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8350E7-1B42-46B5-900B-2FC8591EC410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -39,13 +39,31 @@
     <t>young</t>
   </si>
   <si>
+    <t>SS1381-01-1</t>
+  </si>
+  <si>
+    <t>SS1381-01-2</t>
+  </si>
+  <si>
     <t>SS1381-01-4A</t>
   </si>
   <si>
+    <t>SS1381-01-5</t>
+  </si>
+  <si>
+    <t>SS1381-23-4A</t>
+  </si>
+  <si>
     <t>SS1381-23-13A</t>
   </si>
   <si>
     <t>SS1381-23-14A</t>
+  </si>
+  <si>
+    <t>SS1381-23-15A</t>
+  </si>
+  <si>
+    <t>SS1381-23-16A</t>
   </si>
   <si>
     <t>SS1381-01-3A</t>
@@ -366,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -387,7 +405,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -395,7 +413,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -403,10 +421,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -414,6 +432,54 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
         <v>2</v>
       </c>
     </row>

--- a/case-study/sample_info.xlsx
+++ b/case-study/sample_info.xlsx
@@ -27,7 +27,7 @@
     <t>A1</t>
   </si>
   <si>
-    <t>young (experimental)</t>
+    <t>experimental</t>
   </si>
   <si>
     <t>A2</t>
@@ -45,7 +45,7 @@
     <t>B1</t>
   </si>
   <si>
-    <t>old (control)</t>
+    <t>control</t>
   </si>
   <si>
     <t>B2</t>
